--- a/data/trans_dic/P36$otros-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$otros-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01910523547375603</v>
+        <v>0.01905729639080813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008137570925215061</v>
+        <v>0.007663352739764456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0237265152687086</v>
+        <v>0.02316917106477204</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01654036889986899</v>
+        <v>0.01577180706596952</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.005647935645784281</v>
+        <v>0.006138286527452763</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03059179838712471</v>
+        <v>0.03075347084356212</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01993075179664977</v>
+        <v>0.0196247121504885</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.008245431144988382</v>
+        <v>0.008132400282481841</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03028823928884008</v>
+        <v>0.03040825091301443</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04040873933393543</v>
+        <v>0.04050268172634438</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0275687270689494</v>
+        <v>0.0256447232373333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05157374393905097</v>
+        <v>0.04847765273898293</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03215731922561769</v>
+        <v>0.03220199644318588</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0168771162470423</v>
+        <v>0.01741420941051108</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0596728717906516</v>
+        <v>0.05741789172446789</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03298405512522672</v>
+        <v>0.03289912923571139</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01824471802337092</v>
+        <v>0.0188248669390448</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04936607864071438</v>
+        <v>0.04858085530141219</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009010428156703021</v>
+        <v>0.008749713076978523</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005625066730058182</v>
+        <v>0.005737323736416639</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03220987916788041</v>
+        <v>0.03272397035797466</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.008418582793032611</v>
+        <v>0.008909976970407357</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005517433937985809</v>
+        <v>0.006085595356455222</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0295210108937293</v>
+        <v>0.02974702911901321</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.009628217170853349</v>
+        <v>0.01008677176253706</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.006652689966975609</v>
+        <v>0.00676177745703526</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03299286538225518</v>
+        <v>0.03327288471817406</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02120133238853836</v>
+        <v>0.02116784721101861</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01430707616138303</v>
+        <v>0.01444902800243415</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05061343583338746</v>
+        <v>0.0501810512817071</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01981943474157659</v>
+        <v>0.02123101737223861</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01506660718167774</v>
+        <v>0.01605772870668601</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04643623967381869</v>
+        <v>0.04799131870512865</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01793753790462681</v>
+        <v>0.01828197990981567</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01302955817571039</v>
+        <v>0.01315830063208514</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04600279981584542</v>
+        <v>0.04530868176645452</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005928181276933362</v>
+        <v>0.005020307181081346</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.001956573798531606</v>
+        <v>0.001979850852594459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03128904453984341</v>
+        <v>0.03201302337525894</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.002038071815508343</v>
+        <v>0.00202837270724871</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008518881130617864</v>
+        <v>0.01003881845667027</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03780611830234229</v>
+        <v>0.03867937543315939</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.004652756152129395</v>
+        <v>0.004941447805059909</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.007062016888553465</v>
+        <v>0.007155065359043135</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03971387388787454</v>
+        <v>0.03989636446419112</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02759809930376993</v>
+        <v>0.02446566670649055</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01642051421641299</v>
+        <v>0.01669850087913161</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07051374994791422</v>
+        <v>0.07187267464822608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.0178008889165621</v>
+        <v>0.01719957626278028</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03847105137964522</v>
+        <v>0.04170093587147728</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07937104700185529</v>
+        <v>0.07910925773538019</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01776750489593309</v>
+        <v>0.01822894625529725</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02404154209825364</v>
+        <v>0.02438698546204554</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06786366640550946</v>
+        <v>0.06971715335252442</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01429753941424679</v>
+        <v>0.01381634488042936</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007355652957798021</v>
+        <v>0.007069034459474625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03427671404548274</v>
+        <v>0.03417168374715641</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01275566377236005</v>
+        <v>0.01261682350624962</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.008127093735063784</v>
+        <v>0.007837508044402154</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03488765407789559</v>
+        <v>0.03474772221676561</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01401823320692411</v>
+        <v>0.01421893293507369</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.008342587658160931</v>
+        <v>0.0086035328838179</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03621330138366647</v>
+        <v>0.03582720284375037</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02359012662425734</v>
+        <v>0.0236648487505724</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01459814685878415</v>
+        <v>0.01482162601454423</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04805851991440099</v>
+        <v>0.04834157324358953</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.02135878461099495</v>
+        <v>0.02151756395934763</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01550673400239339</v>
+        <v>0.01565309441968866</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04814504338730457</v>
+        <v>0.04841997468087608</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02065066394868495</v>
+        <v>0.02070663838609875</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01376354825995333</v>
+        <v>0.0140588188725458</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04568453023964743</v>
+        <v>0.04578412609013168</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19635</v>
+        <v>19586</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7915</v>
+        <v>7454</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17856</v>
+        <v>17436</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21720</v>
+        <v>20711</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7544</v>
+        <v>8199</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30392</v>
+        <v>30553</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>46656</v>
+        <v>45939</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>19034</v>
+        <v>18773</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>52884</v>
+        <v>53094</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41530</v>
+        <v>41627</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26815</v>
+        <v>24943</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38812</v>
+        <v>36482</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42227</v>
+        <v>42286</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22544</v>
+        <v>23261</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>59283</v>
+        <v>57043</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>77212</v>
+        <v>77013</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>42116</v>
+        <v>43455</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>86195</v>
+        <v>84824</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15250</v>
+        <v>14808</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11031</v>
+        <v>11251</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>66810</v>
+        <v>67876</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13349</v>
+        <v>14128</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>9682</v>
+        <v>10679</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58636</v>
+        <v>59085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>31562</v>
+        <v>33065</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>24721</v>
+        <v>25127</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>133966</v>
+        <v>135103</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35882</v>
+        <v>35825</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28058</v>
+        <v>28336</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>104982</v>
+        <v>104085</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>31426</v>
+        <v>33664</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26440</v>
+        <v>28179</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>92234</v>
+        <v>95322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>58800</v>
+        <v>59929</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>48417</v>
+        <v>48896</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>186792</v>
+        <v>183973</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3258</v>
+        <v>2759</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>17112</v>
+        <v>17507</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3897</v>
+        <v>4592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>20761</v>
+        <v>21240</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4774</v>
+        <v>5070</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6621</v>
+        <v>6709</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>43527</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15169</v>
+        <v>13447</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7884</v>
+        <v>8018</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>38563</v>
+        <v>39306</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>8481</v>
+        <v>8194</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17599</v>
+        <v>19077</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43586</v>
+        <v>43442</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18230</v>
+        <v>18704</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>22542</v>
+        <v>22866</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>74380</v>
+        <v>76412</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>46750</v>
+        <v>45177</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25111</v>
+        <v>24133</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>115638</v>
+        <v>115283</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>43053</v>
+        <v>42584</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28836</v>
+        <v>27808</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>123113</v>
+        <v>122619</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>93151</v>
+        <v>94485</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>58081</v>
+        <v>59898</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>249962</v>
+        <v>247297</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77135</v>
+        <v>77380</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>49836</v>
+        <v>50599</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>162132</v>
+        <v>163087</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>72090</v>
+        <v>72626</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>55020</v>
+        <v>55539</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>169897</v>
+        <v>170867</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>137223</v>
+        <v>137595</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>95822</v>
+        <v>97877</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>315337</v>
+        <v>316025</v>
       </c>
     </row>
     <row r="20">
